--- a/data/trans_bre/P1804-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Edad-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P1804-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>728,91%</t>
         </is>
       </c>
     </row>
@@ -619,10 +678,30 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 5,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 12,06</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-24,81; 105,87</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>118,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49,26%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 8,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 7,96</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48,64; 249,77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-20,64; 172,63</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>133,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>61,9%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 8,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 5,65</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46,51; 280,21</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 172,53</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20,31%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 3,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 3,75</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-24,45; 93,85</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-22,06; 86,77</t>
         </is>
       </c>
     </row>
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
         </is>
       </c>
     </row>
@@ -859,12 +1078,32 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 6,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 3,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,81; 107,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-19,36; 71,47</t>
         </is>
       </c>
     </row>
@@ -891,12 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33,41%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,68%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1178,32 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 6,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 2,01</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 82,55</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-33,74; 29,69</t>
         </is>
       </c>
     </row>
@@ -951,12 +1230,32 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>57,7%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34,44%</t>
         </is>
       </c>
     </row>
@@ -979,12 +1278,32 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,17; 4,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 3,15</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>31,87; 88,4</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 59,04</t>
         </is>
       </c>
     </row>
@@ -998,12 +1317,12 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P1804-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>728,91%</t>
+          <t>806,85%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 12,06</t>
+          <t>3,13; 12,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>29,92%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,96</t>
+          <t>-3,82; 6,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 172,63</t>
+          <t>-38,34; 143,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>65,89%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,65</t>
+          <t>0,17; 5,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 172,53</t>
+          <t>1,02; 183,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>42,42%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,75</t>
+          <t>-0,8; 5,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 86,77</t>
+          <t>-12,14; 247,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>16,32%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,74</t>
+          <t>-1,43; 3,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 71,47</t>
+          <t>-17,42; 73,2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>-35,41%</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 6,94</t>
+          <t>-4,27; 5,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,01</t>
+          <t>-7,82; 0,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 82,55</t>
+          <t>-31,81; 66,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 29,69</t>
+          <t>-76,36; 8,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>73,39%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>21,17%</t>
         </is>
       </c>
     </row>
@@ -1278,44 +1278,144 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>1,24; 12,07</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 4,42</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 179,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-20,97; 80,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>57,7%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>2,17; 4,92</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 3,15</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 3,47</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>31,87; 88,4</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>9,69; 59,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 78,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P1804-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Edad-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,43</t>
+          <t>-1,77; 5,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 12,24</t>
+          <t>3,12; 12,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 105,87</t>
+          <t>-24,28; 112,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,84</t>
+          <t>2,7; 8,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 6,67</t>
+          <t>-3,19; 6,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,64; 249,77</t>
+          <t>43,98; 267,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 143,33</t>
+          <t>-31,42; 153,84</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,02</t>
+          <t>2,17; 8,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,78</t>
+          <t>0,18; 5,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,51; 280,21</t>
+          <t>37,9; 271,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 183,06</t>
+          <t>-0,52; 177,68</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,78</t>
+          <t>-1,61; 3,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,95</t>
+          <t>-0,87; 5,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 93,85</t>
+          <t>-25,36; 87,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 247,76</t>
+          <t>-13,46; 235,1</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 6,64</t>
+          <t>-1,15; 6,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,76</t>
+          <t>-1,38; 3,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 107,98</t>
+          <t>-12,17; 113,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 73,2</t>
+          <t>-16,8; 70,32</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 5,49</t>
+          <t>-4,43; 5,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 0,57</t>
+          <t>-7,53; 0,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 66,51</t>
+          <t>-31,24; 60,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,36; 8,84</t>
+          <t>-75,1; 7,16</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 12,07</t>
+          <t>0,73; 11,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 4,42</t>
+          <t>-1,49; 4,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 179,23</t>
+          <t>1,66; 167,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 80,46</t>
+          <t>-16,75; 82,79</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,92</t>
+          <t>2,28; 4,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,47</t>
+          <t>0,31; 3,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,87; 88,4</t>
+          <t>32,31; 87,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,66; 78,36</t>
+          <t>7,09; 79,09</t>
         </is>
       </c>
     </row>
